--- a/pred_ohlcv/54_21/2020-01-25 ENJ ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-25 ENJ ohlcv.xlsx
@@ -1718,7 +1718,7 @@
         <v>1275687.937245423</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>1171226.696445423</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>1199215.768745423</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>1253697.071545423</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>1254999.521345423</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>1255701.946445423</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>1255701.946445423</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>1255701.946445423</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>1259293.108645423</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>1299951.418945423</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>1299951.418945423</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>1299951.418945423</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>1299956.418945423</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>1299956.418945423</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>1264953.827245423</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>1106470.536675959</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>1042236.726975959</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>1002364.729375959</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>1330210.278184583</v>
       </c>
       <c r="H283">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>1351549.666384583</v>
       </c>
       <c r="H284">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>1205498.79047168</v>
       </c>
       <c r="H285">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>1193911.87867168</v>
       </c>
       <c r="H286">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>1204144.56757168</v>
       </c>
       <c r="H287">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>1202521.48436244</v>
       </c>
       <c r="H289">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>1172341.41726244</v>
       </c>
       <c r="H290">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>1148669.94416244</v>
       </c>
       <c r="H291">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>1161761.98076244</v>
       </c>
       <c r="H292">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>1185079.04176244</v>
       </c>
       <c r="H293">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>1185079.04176244</v>
       </c>
       <c r="H294">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>1188109.04176244</v>
       </c>
       <c r="H295">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>1188109.04176244</v>
       </c>
       <c r="H296">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>1176109.04176244</v>
       </c>
       <c r="H297">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>1196099.04176244</v>
       </c>
       <c r="H298">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>1190352.13426244</v>
       </c>
       <c r="H299">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>1175789.89196244</v>
       </c>
       <c r="H302">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>1151008.99666244</v>
       </c>
       <c r="H305">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>1163018.99666244</v>
       </c>
       <c r="H306">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>1156375.51916244</v>
       </c>
       <c r="H307">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>1154544.51916244</v>
       </c>
       <c r="H308">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>1136777.483142927</v>
       </c>
       <c r="H310">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -13054,7 +13054,7 @@
         <v>292674.9172763805</v>
       </c>
       <c r="H487">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -13080,7 +13080,7 @@
         <v>299814.5324763805</v>
       </c>
       <c r="H488">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>321874.8667763805</v>
       </c>
       <c r="H490">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -13158,7 +13158,7 @@
         <v>305722.8713763804</v>
       </c>
       <c r="H491">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -13184,7 +13184,7 @@
         <v>305722.8713763804</v>
       </c>
       <c r="H492">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -13210,7 +13210,7 @@
         <v>305722.8713763804</v>
       </c>
       <c r="H493">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -13236,7 +13236,7 @@
         <v>272815.2566763805</v>
       </c>
       <c r="H494">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>273323.3665763804</v>
       </c>
       <c r="H495">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13288,7 +13288,7 @@
         <v>255109.6015763804</v>
       </c>
       <c r="H496">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -13392,7 +13392,7 @@
         <v>87728.50827638044</v>
       </c>
       <c r="H500">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -13548,7 +13548,7 @@
         <v>90533.10087638044</v>
       </c>
       <c r="H506">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -13574,7 +13574,7 @@
         <v>116842.2061763804</v>
       </c>
       <c r="H507">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -13600,7 +13600,7 @@
         <v>93299.54307638043</v>
       </c>
       <c r="H508">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -13626,7 +13626,7 @@
         <v>129235.3704763804</v>
       </c>
       <c r="H509">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -13652,7 +13652,7 @@
         <v>119312.5249763804</v>
       </c>
       <c r="H510">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -13678,7 +13678,7 @@
         <v>119312.5249763804</v>
       </c>
       <c r="H511">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -13704,7 +13704,7 @@
         <v>119312.5249763804</v>
       </c>
       <c r="H512">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -14146,7 +14146,7 @@
         <v>106215.6862763804</v>
       </c>
       <c r="H529">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -14172,7 +14172,7 @@
         <v>87164.98007638044</v>
       </c>
       <c r="H530">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -14198,7 +14198,7 @@
         <v>104643.2366763804</v>
       </c>
       <c r="H531">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -14224,7 +14224,7 @@
         <v>99520.60507638045</v>
       </c>
       <c r="H532">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -14250,7 +14250,7 @@
         <v>99525.80507638045</v>
       </c>
       <c r="H533">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -14276,7 +14276,7 @@
         <v>117967.2762763804</v>
       </c>
       <c r="H534">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -14302,7 +14302,7 @@
         <v>119695.3200763804</v>
       </c>
       <c r="H535">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -14354,7 +14354,7 @@
         <v>120104.5142763804</v>
       </c>
       <c r="H537">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -14380,7 +14380,7 @@
         <v>120204.5142763804</v>
       </c>
       <c r="H538">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -14406,7 +14406,7 @@
         <v>120018.4564763805</v>
       </c>
       <c r="H539">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -14432,7 +14432,7 @@
         <v>120018.4564763805</v>
       </c>
       <c r="H540">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -14458,7 +14458,7 @@
         <v>120018.4564763805</v>
       </c>
       <c r="H541">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -14484,7 +14484,7 @@
         <v>130779.2281763804</v>
       </c>
       <c r="H542">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -14510,7 +14510,7 @@
         <v>145279.2281763804</v>
       </c>
       <c r="H543">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -14536,7 +14536,7 @@
         <v>173574.2153763805</v>
       </c>
       <c r="H544">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -14562,7 +14562,7 @@
         <v>173574.2153763805</v>
       </c>
       <c r="H545">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -14588,7 +14588,7 @@
         <v>173574.2153763805</v>
       </c>
       <c r="H546">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -14744,7 +14744,7 @@
         <v>245173.1664763805</v>
       </c>
       <c r="H552">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -14770,7 +14770,7 @@
         <v>245182.8220763805</v>
       </c>
       <c r="H553">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="554" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-25 ENJ ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-25 ENJ ohlcv.xlsx
@@ -1718,7 +1718,7 @@
         <v>1275687.937245423</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>1171226.696445423</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>1199215.768745423</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>1253697.071545423</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>1254999.521345423</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>1255701.946445423</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>1255701.946445423</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>1255701.946445423</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>1259293.108645423</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>1299951.418945423</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>1299951.418945423</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>1299951.418945423</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>1299956.418945423</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>1299956.418945423</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>1264953.827245423</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>1106470.536675959</v>
       </c>
       <c r="H236">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>1042236.726975959</v>
       </c>
       <c r="H239">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>1002364.729375959</v>
       </c>
       <c r="H240">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>1090687.851742345</v>
       </c>
       <c r="H280">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>1168383.541942345</v>
       </c>
       <c r="H281">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>1333651.338184583</v>
       </c>
       <c r="H282">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>1330210.278184583</v>
       </c>
       <c r="H283">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>1351549.666384583</v>
       </c>
       <c r="H284">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>1205498.79047168</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>1193911.87867168</v>
       </c>
       <c r="H286">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>1204144.56757168</v>
       </c>
       <c r="H287">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>1222714.81886244</v>
       </c>
       <c r="H288">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>1202521.48436244</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>1172341.41726244</v>
       </c>
       <c r="H290">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>1148669.94416244</v>
       </c>
       <c r="H291">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>1161761.98076244</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>1185079.04176244</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>1185079.04176244</v>
       </c>
       <c r="H294">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>1188109.04176244</v>
       </c>
       <c r="H295">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>1188109.04176244</v>
       </c>
       <c r="H296">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>1176109.04176244</v>
       </c>
       <c r="H297">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>1196099.04176244</v>
       </c>
       <c r="H298">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>1190352.13426244</v>
       </c>
       <c r="H299">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>1179665.23816244</v>
       </c>
       <c r="H300">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>1179665.23816244</v>
       </c>
       <c r="H301">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>1175789.89196244</v>
       </c>
       <c r="H302">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>1175789.89196244</v>
       </c>
       <c r="H303">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>1175915.89196244</v>
       </c>
       <c r="H304">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>1151008.99666244</v>
       </c>
       <c r="H305">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>1163018.99666244</v>
       </c>
       <c r="H306">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>1156375.51916244</v>
       </c>
       <c r="H307">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>1154544.51916244</v>
       </c>
       <c r="H308">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>1154807.86426244</v>
       </c>
       <c r="H309">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>1136777.483142927</v>
       </c>
       <c r="H310">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>1073377.291342927</v>
       </c>
       <c r="H311">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -13392,7 +13392,7 @@
         <v>87728.50827638044</v>
       </c>
       <c r="H500">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -13730,7 +13730,7 @@
         <v>119312.5249763804</v>
       </c>
       <c r="H513">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -13756,7 +13756,7 @@
         <v>119312.5249763804</v>
       </c>
       <c r="H514">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -13782,7 +13782,7 @@
         <v>98782.30477638044</v>
       </c>
       <c r="H515">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -14146,7 +14146,7 @@
         <v>106215.6862763804</v>
       </c>
       <c r="H529">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -14172,7 +14172,7 @@
         <v>87164.98007638044</v>
       </c>
       <c r="H530">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -14198,7 +14198,7 @@
         <v>104643.2366763804</v>
       </c>
       <c r="H531">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -14224,7 +14224,7 @@
         <v>99520.60507638045</v>
       </c>
       <c r="H532">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -14250,7 +14250,7 @@
         <v>99525.80507638045</v>
       </c>
       <c r="H533">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -14276,7 +14276,7 @@
         <v>117967.2762763804</v>
       </c>
       <c r="H534">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -14302,7 +14302,7 @@
         <v>119695.3200763804</v>
       </c>
       <c r="H535">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -14328,7 +14328,7 @@
         <v>120062.0568763804</v>
       </c>
       <c r="H536">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -14354,7 +14354,7 @@
         <v>120104.5142763804</v>
       </c>
       <c r="H537">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -14380,7 +14380,7 @@
         <v>120204.5142763804</v>
       </c>
       <c r="H538">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -14406,7 +14406,7 @@
         <v>120018.4564763805</v>
       </c>
       <c r="H539">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -14432,7 +14432,7 @@
         <v>120018.4564763805</v>
       </c>
       <c r="H540">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -14458,7 +14458,7 @@
         <v>120018.4564763805</v>
       </c>
       <c r="H541">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -14484,7 +14484,7 @@
         <v>130779.2281763804</v>
       </c>
       <c r="H542">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -14510,7 +14510,7 @@
         <v>145279.2281763804</v>
       </c>
       <c r="H543">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -14536,7 +14536,7 @@
         <v>173574.2153763805</v>
       </c>
       <c r="H544">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -14562,7 +14562,7 @@
         <v>173574.2153763805</v>
       </c>
       <c r="H545">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -14588,7 +14588,7 @@
         <v>173574.2153763805</v>
       </c>
       <c r="H546">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -14614,7 +14614,7 @@
         <v>173803.2821763805</v>
       </c>
       <c r="H547">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -14640,7 +14640,7 @@
         <v>193435.3871763805</v>
       </c>
       <c r="H548">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -14666,7 +14666,7 @@
         <v>232005.6466763805</v>
       </c>
       <c r="H549">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -14692,7 +14692,7 @@
         <v>215103.5417763805</v>
       </c>
       <c r="H550">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -14718,7 +14718,7 @@
         <v>215103.5417763805</v>
       </c>
       <c r="H551">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -14744,7 +14744,7 @@
         <v>245173.1664763805</v>
       </c>
       <c r="H552">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -14770,7 +14770,7 @@
         <v>245182.8220763805</v>
       </c>
       <c r="H553">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -14796,7 +14796,7 @@
         <v>236967.9818763805</v>
       </c>
       <c r="H554">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -14822,7 +14822,7 @@
         <v>237224.9395763805</v>
       </c>
       <c r="H555">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -14848,7 +14848,7 @@
         <v>307713.0283401317</v>
       </c>
       <c r="H556">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -14874,7 +14874,7 @@
         <v>300537.6037401317</v>
       </c>
       <c r="H557">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -14900,7 +14900,7 @@
         <v>314677.7773401316</v>
       </c>
       <c r="H558">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -14926,7 +14926,7 @@
         <v>329543.2091401317</v>
       </c>
       <c r="H559">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -14952,7 +14952,7 @@
         <v>289194.4163371525</v>
       </c>
       <c r="H560">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -14978,7 +14978,7 @@
         <v>290215.2026373515</v>
       </c>
       <c r="H561">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="562" spans="1:8">
@@ -15004,7 +15004,7 @@
         <v>271374.8783372516</v>
       </c>
       <c r="H562">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="563" spans="1:8">
@@ -15030,7 +15030,7 @@
         <v>271374.8783372516</v>
       </c>
       <c r="H563">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="564" spans="1:8">
@@ -15056,7 +15056,7 @@
         <v>285272.2378372516</v>
       </c>
       <c r="H564">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="565" spans="1:8">
@@ -15082,7 +15082,7 @@
         <v>252805.2714372516</v>
       </c>
       <c r="H565">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="566" spans="1:8">
@@ -15108,7 +15108,7 @@
         <v>345693.4456372516</v>
       </c>
       <c r="H566">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="567" spans="1:8">
@@ -15134,7 +15134,7 @@
         <v>380888.6456372516</v>
       </c>
       <c r="H567">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="568" spans="1:8">
@@ -15160,7 +15160,7 @@
         <v>380888.6456372516</v>
       </c>
       <c r="H568">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="569" spans="1:8">
@@ -15186,7 +15186,7 @@
         <v>404829.8391372516</v>
       </c>
       <c r="H569">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="570" spans="1:8">
@@ -18514,7 +18514,7 @@
         <v>808327.6128587088</v>
       </c>
       <c r="H697">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="698" spans="1:8">
@@ -18540,7 +18540,7 @@
         <v>851185.3923587088</v>
       </c>
       <c r="H698">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="699" spans="1:8">
@@ -18566,7 +18566,7 @@
         <v>589852.7535587088</v>
       </c>
       <c r="H699">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="700" spans="1:8">
@@ -18592,7 +18592,7 @@
         <v>515833.2713587089</v>
       </c>
       <c r="H700">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="701" spans="1:8">
@@ -18618,7 +18618,7 @@
         <v>557993.0532587089</v>
       </c>
       <c r="H701">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="702" spans="1:8">
@@ -18644,7 +18644,7 @@
         <v>505275.8760587089</v>
       </c>
       <c r="H702">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="703" spans="1:8">
@@ -18670,7 +18670,7 @@
         <v>505275.8760587089</v>
       </c>
       <c r="H703">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="704" spans="1:8">
@@ -18696,7 +18696,7 @@
         <v>505275.8760587089</v>
       </c>
       <c r="H704">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="705" spans="1:8">
@@ -18722,7 +18722,7 @@
         <v>495958.2323587089</v>
       </c>
       <c r="H705">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="706" spans="1:8">
@@ -23610,7 +23610,7 @@
         <v>-8945.610419370554</v>
       </c>
       <c r="H893">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="894" spans="1:8">
@@ -23740,7 +23740,7 @@
         <v>-92896.68611937056</v>
       </c>
       <c r="H898">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="899" spans="1:8">
@@ -23766,7 +23766,7 @@
         <v>-91798.27911937055</v>
       </c>
       <c r="H899">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="900" spans="1:8">
@@ -23844,7 +23844,7 @@
         <v>-171052.3809193705</v>
       </c>
       <c r="H902">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="903" spans="1:8">
@@ -23870,7 +23870,7 @@
         <v>-159322.3809193705</v>
       </c>
       <c r="H903">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="904" spans="1:8">
@@ -23896,7 +23896,7 @@
         <v>-165098.1802193706</v>
       </c>
       <c r="H904">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="905" spans="1:8">
@@ -23922,7 +23922,7 @@
         <v>-164218.5789193705</v>
       </c>
       <c r="H905">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="906" spans="1:8">
@@ -23948,7 +23948,7 @@
         <v>-150398.5789193705</v>
       </c>
       <c r="H906">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
